--- a/opm_hero_property/heroes/96.xlsx
+++ b/opm_hero_property/heroes/96.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11130</v>
       </c>
       <c r="D4" t="n">
-        <v>11130</v>
+        <v>11391</v>
       </c>
       <c r="E4" t="n">
         <v>249</v>
@@ -1304,7 +1305,7 @@
         <v>12411</v>
       </c>
       <c r="D5" t="n">
-        <v>12411</v>
+        <v>12967</v>
       </c>
       <c r="E5" t="n">
         <v>374</v>
@@ -1411,7 +1412,7 @@
         <v>13918</v>
       </c>
       <c r="D6" t="n">
-        <v>13918</v>
+        <v>14821</v>
       </c>
       <c r="E6" t="n">
         <v>512</v>
@@ -1518,7 +1519,7 @@
         <v>15651</v>
       </c>
       <c r="D7" t="n">
-        <v>15651</v>
+        <v>18691</v>
       </c>
       <c r="E7" t="n">
         <v>961</v>
@@ -1625,7 +1626,7 @@
         <v>17610</v>
       </c>
       <c r="D8" t="n">
-        <v>17610</v>
+        <v>24045</v>
       </c>
       <c r="E8" t="n">
         <v>1423</v>
@@ -1732,7 +1733,7 @@
         <v>19871</v>
       </c>
       <c r="D9" t="n">
-        <v>19871</v>
+        <v>31253</v>
       </c>
       <c r="E9" t="n">
         <v>1879</v>
@@ -1839,7 +1840,7 @@
         <v>21076</v>
       </c>
       <c r="D10" t="n">
-        <v>21076</v>
+        <v>37256</v>
       </c>
       <c r="E10" t="n">
         <v>2220</v>
@@ -1946,7 +1947,7 @@
         <v>22508</v>
       </c>
       <c r="D11" t="n">
-        <v>22508</v>
+        <v>44626</v>
       </c>
       <c r="E11" t="n">
         <v>2590</v>
@@ -2053,7 +2054,7 @@
         <v>25522</v>
       </c>
       <c r="D12" t="n">
-        <v>25522</v>
+        <v>57744</v>
       </c>
       <c r="E12" t="n">
         <v>3188</v>
@@ -2160,7 +2161,7 @@
         <v>26125</v>
       </c>
       <c r="D13" t="n">
-        <v>26125</v>
+        <v>59598</v>
       </c>
       <c r="E13" t="n">
         <v>3587</v>
@@ -2267,7 +2268,7 @@
         <v>26727</v>
       </c>
       <c r="D14" t="n">
-        <v>26727</v>
+        <v>61452</v>
       </c>
       <c r="E14" t="n">
         <v>3985</v>
@@ -2374,7 +2375,7 @@
         <v>27330</v>
       </c>
       <c r="D15" t="n">
-        <v>27330</v>
+        <v>63307</v>
       </c>
       <c r="E15" t="n">
         <v>4384</v>
@@ -2481,7 +2482,7 @@
         <v>27933</v>
       </c>
       <c r="D16" t="n">
-        <v>27933</v>
+        <v>65161</v>
       </c>
       <c r="E16" t="n">
         <v>4782</v>
@@ -2588,7 +2589,7 @@
         <v>28536</v>
       </c>
       <c r="D17" t="n">
-        <v>28536</v>
+        <v>67015</v>
       </c>
       <c r="E17" t="n">
         <v>5181</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>96</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29509.6017016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5333.526040799999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2151.0370666</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>96</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41678.9491462</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7602.805384</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3270.67669</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>96</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75356.071384</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13300.6036</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6957.918048</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75356.071384</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13300.6036</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6957.918048</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>96</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67044.40746399999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12381.5356</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6247.643808</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>276710.5544806</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46066.001888</v>
+      </c>
+      <c r="V7" t="n">
+        <v>29948.9421088</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>238825.2164026</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42196.108448</v>
+      </c>
+      <c r="V8" t="n">
+        <v>26205.8311648</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>251453.6624286</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43486.072928</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27453.5348128</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2410</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264082.1084546</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44776.037408</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28701.2384608</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2660</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>96</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>276710.5544806</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46066.001888</v>
+      </c>
+      <c r="V11" t="n">
+        <v>29948.9421088</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>276710.5544806</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46066.001888</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29948.9421088</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>409232.062871</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68685.25632720001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>50921.10302559999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>96</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>409232.062871</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68685.25632720001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>50921.10302559999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>96</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>973280.1675976999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>168548.3635184</v>
+      </c>
+      <c r="V15" t="n">
+        <v>146348.3898</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>96</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5152721.478321601</v>
+      </c>
+      <c r="U16" t="n">
+        <v>872386.0797152</v>
+      </c>
+      <c r="V16" t="n">
+        <v>722629.831433</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>96</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8416858.843052801</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1426615.4991008</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1176362.121756</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>96</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224399.491196</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43049.7563472</v>
+      </c>
+      <c r="V18" t="n">
+        <v>23939.6255488</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>96</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>303433.9597736</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55156.4349728</v>
+      </c>
+      <c r="V19" t="n">
+        <v>34101.1920568</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2410</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>96</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>393798.1965694</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68363.57817679999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>48463.4153376</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2660</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>96</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>455552.6742795</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79736.9303256</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58469.4154792</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>96</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>522910.73363</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96533.9275208</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72161.1372114</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>96</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>661070.9448832</v>
+      </c>
+      <c r="U23" t="n">
+        <v>130823.3341024</v>
+      </c>
+      <c r="V23" t="n">
+        <v>99972.445049</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/96.xlsx
+++ b/opm_hero_property/heroes/96.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29509.6017016</v>
+        <v>5287598.478321601</v>
       </c>
       <c r="U2" t="n">
-        <v>5333.526040799999</v>
+        <v>896114.0797152</v>
       </c>
       <c r="V2" t="n">
-        <v>2151.0370666</v>
+        <v>744469.831433</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA2" t="n">
-        <v>1950</v>
+        <v>2910</v>
       </c>
       <c r="AB2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11242610.827795</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1923524.33130123</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15767491.65909623</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41678.9491462</v>
+        <v>661070.9448832</v>
       </c>
       <c r="U3" t="n">
-        <v>7602.805384</v>
+        <v>130823.3341024</v>
       </c>
       <c r="V3" t="n">
-        <v>3270.67669</v>
+        <v>99972.445049</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA3" t="n">
-        <v>1950</v>
+        <v>2910</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1274005.802915</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>218515.95630651</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2154598.00922151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75356.071384</v>
+        <v>7534.584800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>13300.6036</v>
+        <v>1633.9342</v>
       </c>
       <c r="V4" t="n">
-        <v>6957.918048</v>
+        <v>563.6181</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1950</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19326.684855</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23783.534855</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75356.071384</v>
+        <v>19976.0486</v>
       </c>
       <c r="U5" t="n">
-        <v>13300.6036</v>
+        <v>4068.866</v>
       </c>
       <c r="V5" t="n">
-        <v>6957.918048</v>
+        <v>1685.665</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1950</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48685.04775</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60513.84775</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67044.40746399999</v>
+        <v>55767.352</v>
       </c>
       <c r="U6" t="n">
-        <v>12381.5356</v>
+        <v>10470.9</v>
       </c>
       <c r="V6" t="n">
-        <v>6247.643808</v>
+        <v>5423.968</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115940.078</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>164139.378</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>276710.5544806</v>
+        <v>55767.352</v>
       </c>
       <c r="U7" t="n">
-        <v>46066.001888</v>
+        <v>10470.9</v>
       </c>
       <c r="V7" t="n">
-        <v>29948.9421088</v>
+        <v>5423.968</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA7" t="n">
-        <v>2910</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115940.078</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>164321.378</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>238825.2164026</v>
+        <v>56044.407464</v>
       </c>
       <c r="U8" t="n">
-        <v>42196.108448</v>
+        <v>10501.5356</v>
       </c>
       <c r="V8" t="n">
-        <v>26205.8311648</v>
+        <v>5447.643808</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115940.078</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>624.577</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164945.955</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251453.6624286</v>
+        <v>236773.3718</v>
       </c>
       <c r="U9" t="n">
-        <v>43486.072928</v>
+        <v>42224.112</v>
       </c>
       <c r="V9" t="n">
-        <v>27453.5348128</v>
+        <v>26208.0608</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7597,7 +7805,7 @@
         <v>1650</v>
       </c>
       <c r="AA9" t="n">
-        <v>2410</v>
+        <v>2160</v>
       </c>
       <c r="AB9" t="n">
         <v>930</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>691635.0941999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264082.1084546</v>
+        <v>238036.2164026</v>
       </c>
       <c r="U10" t="n">
-        <v>44776.037408</v>
+        <v>42353.108448</v>
       </c>
       <c r="V10" t="n">
-        <v>28701.2384608</v>
+        <v>26332.8311648</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7708,7 +7940,7 @@
         <v>1650</v>
       </c>
       <c r="AA10" t="n">
-        <v>2660</v>
+        <v>2160</v>
       </c>
       <c r="AB10" t="n">
         <v>930</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2870.3496914</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>694505.4438914</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>276710.5544806</v>
+        <v>250664.6624286</v>
       </c>
       <c r="U11" t="n">
-        <v>46066.001888</v>
+        <v>43643.072928</v>
       </c>
       <c r="V11" t="n">
-        <v>29948.9421088</v>
+        <v>27580.5348128</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -7819,7 +8075,7 @@
         <v>1650</v>
       </c>
       <c r="AA11" t="n">
-        <v>2910</v>
+        <v>2410</v>
       </c>
       <c r="AB11" t="n">
         <v>930</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>31786.3466054</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>723421.4408054</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,21 +8181,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276710.5544806</v>
+        <v>263293.1084546</v>
       </c>
       <c r="U12" t="n">
-        <v>46066.001888</v>
+        <v>44933.037408</v>
       </c>
       <c r="V12" t="n">
-        <v>29948.9421088</v>
+        <v>28828.2384608</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -7927,13 +8207,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="AA12" t="n">
-        <v>2910</v>
+        <v>2660</v>
       </c>
       <c r="AB12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>60702.3435194</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>752337.4377194</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>409232.062871</v>
+        <v>275921.5544806</v>
       </c>
       <c r="U13" t="n">
-        <v>68685.25632720001</v>
+        <v>46223.001888</v>
       </c>
       <c r="V13" t="n">
-        <v>50921.10302559999</v>
+        <v>30075.9421088</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="AA13" t="n">
         <v>2910</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>89618.34043340001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>781253.4346334001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>409232.062871</v>
+        <v>275921.5544806</v>
       </c>
       <c r="U14" t="n">
-        <v>68685.25632720001</v>
+        <v>46223.001888</v>
       </c>
       <c r="V14" t="n">
-        <v>50921.10302559999</v>
+        <v>30075.9421088</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="AA14" t="n">
         <v>2910</v>
       </c>
       <c r="AB14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>523321.8442</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>89618.34043340001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>781071.4346334001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>973280.1675976999</v>
+        <v>411732.062871</v>
       </c>
       <c r="U15" t="n">
-        <v>168548.3635184</v>
+        <v>69493.25632720001</v>
       </c>
       <c r="V15" t="n">
-        <v>146348.3898</v>
+        <v>51695.10302559999</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="AA15" t="n">
         <v>2910</v>
       </c>
       <c r="AB15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>805190.23802</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>137983.43590588</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1202120.87392588</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5152721.478321601</v>
+        <v>411732.062871</v>
       </c>
       <c r="U16" t="n">
-        <v>872386.0797152</v>
+        <v>69493.25632720001</v>
       </c>
       <c r="V16" t="n">
-        <v>722629.831433</v>
+        <v>51695.10302559999</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA16" t="n">
         <v>2910</v>
       </c>
       <c r="AB16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>805190.23802</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>137983.43590588</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1202302.87392588</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8416858.843052801</v>
+        <v>1010775.1675977</v>
       </c>
       <c r="U17" t="n">
-        <v>1426615.4991008</v>
+        <v>175405.3635184</v>
       </c>
       <c r="V17" t="n">
-        <v>1176362.121756</v>
+        <v>152981.3898</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="AA17" t="n">
         <v>2910</v>
       </c>
       <c r="AB17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1843430.72114</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>316226.19608466</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3115263.66722466</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224399.491196</v>
+        <v>5287598.478321601</v>
       </c>
       <c r="U18" t="n">
-        <v>43049.7563472</v>
+        <v>896114.0797152</v>
       </c>
       <c r="V18" t="n">
-        <v>23939.6255488</v>
+        <v>744469.831433</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>870</v>
+        <v>2630</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2910</v>
       </c>
       <c r="AB18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11242610.827795</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1923524.33130123</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15767491.65909623</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,31 +9116,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>303433.9597736</v>
+        <v>8726576.843052801</v>
       </c>
       <c r="U19" t="n">
-        <v>55156.4349728</v>
+        <v>1480648.4991008</v>
       </c>
       <c r="V19" t="n">
-        <v>34101.1920568</v>
+        <v>1225594.121756</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -8704,37 +9152,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1580</v>
+        <v>3540</v>
       </c>
       <c r="AA19" t="n">
-        <v>2410</v>
+        <v>2910</v>
       </c>
       <c r="AB19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18244415.15738</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3120865.02956532</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26008588.18694532</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>393798.1965694</v>
+        <v>213399.491196</v>
       </c>
       <c r="U20" t="n">
-        <v>68363.57817679999</v>
+        <v>41169.7563472</v>
       </c>
       <c r="V20" t="n">
-        <v>48463.4153376</v>
+        <v>23139.6255488</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA20" t="n">
-        <v>2660</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>552509.71452</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2998.24237728</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>635640.6568972801</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>455552.6742795</v>
+        <v>280333.9597736</v>
       </c>
       <c r="U21" t="n">
-        <v>79736.9303256</v>
+        <v>51208.4349728</v>
       </c>
       <c r="V21" t="n">
-        <v>58469.4154792</v>
+        <v>32421.1920568</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="AA21" t="n">
-        <v>2910</v>
+        <v>1600</v>
       </c>
       <c r="AB21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>654564.48218</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>39537.33323252</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>827660.5154125199</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,31 +9521,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>522910.73363</v>
+        <v>393798.1965694</v>
       </c>
       <c r="U22" t="n">
-        <v>96533.9275208</v>
+        <v>68363.57817679999</v>
       </c>
       <c r="V22" t="n">
-        <v>72161.1372114</v>
+        <v>48463.4153376</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9037,37 +9557,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="AA22" t="n">
-        <v>2910</v>
+        <v>2660</v>
       </c>
       <c r="AB22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>828220.57378</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>96115.65040052</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1157415.52418052</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>661070.9448832</v>
+        <v>455552.6742795</v>
       </c>
       <c r="U23" t="n">
-        <v>130823.3341024</v>
+        <v>79736.9303256</v>
       </c>
       <c r="V23" t="n">
-        <v>99972.445049</v>
+        <v>58469.4154792</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA23" t="n">
         <v>2910</v>
       </c>
       <c r="AB23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>904364.8682599999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>154998.41427154</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1355757.13253154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>96</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>522910.73363</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96533.9275208</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72161.1372114</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1024512.052155</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>175659.37033407</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1618469.87248907</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>96</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>661070.9448832</v>
+      </c>
+      <c r="U25" t="n">
+        <v>130823.3341024</v>
+      </c>
+      <c r="V25" t="n">
+        <v>99972.445049</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1274005.802915</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>218515.95630651</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2154598.00922151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/96.xlsx
+++ b/opm_hero_property/heroes/96.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43302;31,8201;41,2738</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,129908;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6139;41,2055</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5255;31,990;41,375</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15767;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,741;41,282</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43302.77</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8201.900000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2738.5681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>129908.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>6139.708000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2055.8878</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5255.915000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>990.08</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>375.9777</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>15767.745</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>741.1456000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>282.2526</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43307;31,8203;41,2738</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,129921;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6140;41,2056</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5260;31,991;41,376</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15780;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,742;41,282</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43307.145</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8203.160000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2738.952</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>129921.435</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6140.6512</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2056.176</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5260.290000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>991.3400000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>376.3616</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>15780.87</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>742.0888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>282.5408</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,46334;31,9116;41,3108</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,139003;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6824;41,2333</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5586;31,1089;41,417</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,16759;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,815;41,313</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>46334.54217</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9116.450315</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3108.45071393</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>139003.62651</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>6824.3142358</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2333.56471934</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5586.360465000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1089.694655</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>417.22398929</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>16759.081395</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>815.7142846</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>313.21686302</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49766;31,10151;41,3527</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,149299;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,7599;41,2647</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5955;31,1200;41,463</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,17866;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,899;41,347</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49766.467905</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>10151.5740305</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3527.00136041</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>149299.403715</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>7599.178274260001</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2647.77752558</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5955.514372500001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1200.9842285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>463.43038873</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>17866.5431175</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>899.0224796199999</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>347.90476174</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53803;31,11369;41,4030</t>
+          <t>21,53803;31,11369;41,4019</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53803;31,11369;41,4030</t>
+          <t>21,161410;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26901;31,5684;41,2015</t>
+          <t>21,0;31,8510;41,3017</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6389;31,1331;41,519</t>
+          <t>21,6389;31,1331;41,517</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6389;31,1331;41,519</t>
+          <t>21,19168;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3194;31,665;41,259</t>
+          <t>21,0;31,996;41,388</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53803</v>
+        <v>53803.46007400001</v>
       </c>
       <c r="O6" t="n">
-        <v>11369</v>
+        <v>11369.236809</v>
       </c>
       <c r="P6" t="n">
-        <v>4030</v>
+        <v>4019.34982283</v>
       </c>
       <c r="Q6" t="n">
-        <v>53803</v>
+        <v>161410.380222</v>
       </c>
       <c r="R6" t="n">
-        <v>11369</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4030</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26901</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5684</v>
+        <v>8510.685839880001</v>
       </c>
       <c r="V6" t="n">
-        <v>2015</v>
+        <v>3017.39155754</v>
       </c>
       <c r="W6" t="n">
-        <v>6389</v>
+        <v>6389.469373000001</v>
       </c>
       <c r="X6" t="n">
-        <v>1331</v>
+        <v>1331.825733</v>
       </c>
       <c r="Y6" t="n">
-        <v>519</v>
+        <v>517.75459099</v>
       </c>
       <c r="Z6" t="n">
-        <v>6389</v>
+        <v>19168.408119</v>
       </c>
       <c r="AA6" t="n">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3194</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>665</v>
+        <v>996.9666915600001</v>
       </c>
       <c r="AE6" t="n">
-        <v>259</v>
+        <v>388.68682762</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60346;31,12771;41,5062</t>
+          <t>21,60346;31,12771;41,5047</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60346;31,12771;41,5062</t>
+          <t>21,181039;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30173;31,6385;41,2531</t>
+          <t>21,0;31,9560;41,3789</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7099;31,1484;41,633</t>
+          <t>21,7099;31,1484;41,632</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7099;31,1484;41,633</t>
+          <t>21,21299;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3549;31,742;41,316</t>
+          <t>21,0;31,1110;41,474</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60346</v>
+        <v>60346.42386500001</v>
       </c>
       <c r="O7" t="n">
-        <v>12771</v>
+        <v>12771.3636505</v>
       </c>
       <c r="P7" t="n">
-        <v>5062</v>
+        <v>5047.973192930001</v>
       </c>
       <c r="Q7" t="n">
-        <v>60346</v>
+        <v>181039.271595</v>
       </c>
       <c r="R7" t="n">
-        <v>12771</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5062</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30173</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6385</v>
+        <v>9560.277932660001</v>
       </c>
       <c r="V7" t="n">
-        <v>2531</v>
+        <v>3789.59592134</v>
       </c>
       <c r="W7" t="n">
-        <v>7099</v>
+        <v>7099.850292500001</v>
       </c>
       <c r="X7" t="n">
-        <v>1484</v>
+        <v>1484.1441685</v>
       </c>
       <c r="Y7" t="n">
-        <v>633</v>
+        <v>632.05547629</v>
       </c>
       <c r="Z7" t="n">
-        <v>7099</v>
+        <v>21299.5508775</v>
       </c>
       <c r="AA7" t="n">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3549</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>742</v>
+        <v>1110.98792042</v>
       </c>
       <c r="AE7" t="n">
-        <v>316</v>
+        <v>474.49436902</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68805;31,14355;41,6489</t>
+          <t>21,68805;31,14355;41,6470</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68805;31,14355;41,6489</t>
+          <t>21,206417;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34402;31,7177;41,3244</t>
+          <t>21,0;31,10745;41,4857</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8014;31,1655;41,792</t>
+          <t>21,8014;31,1655;41,789</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8014;31,1655;41,792</t>
+          <t>21,24043;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4007;31,827;41,396</t>
+          <t>21,0;31,1239;41,592</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68805</v>
+        <v>68805.864806</v>
       </c>
       <c r="O8" t="n">
-        <v>14355</v>
+        <v>14355.329555</v>
       </c>
       <c r="P8" t="n">
-        <v>6489</v>
+        <v>6470.59686035</v>
       </c>
       <c r="Q8" t="n">
-        <v>68805</v>
+        <v>206417.594418</v>
       </c>
       <c r="R8" t="n">
-        <v>14355</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6489</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34402</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7177</v>
+        <v>10745.9895526</v>
       </c>
       <c r="V8" t="n">
-        <v>3244</v>
+        <v>4857.5827433</v>
       </c>
       <c r="W8" t="n">
-        <v>8014</v>
+        <v>8014.599887000001</v>
       </c>
       <c r="X8" t="n">
-        <v>1655</v>
+        <v>1655.314535</v>
       </c>
       <c r="Y8" t="n">
-        <v>792</v>
+        <v>789.7482435500001</v>
       </c>
       <c r="Z8" t="n">
-        <v>8014</v>
+        <v>24043.799661</v>
       </c>
       <c r="AA8" t="n">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4007</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>827</v>
+        <v>1239.1211662</v>
       </c>
       <c r="AE8" t="n">
-        <v>396</v>
+        <v>592.8769049</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79683;31,16182;41,8409</t>
+          <t>21,79683;31,16182;41,8385</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79683;31,16182;41,8409</t>
+          <t>21,239050;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39841;31,8091;41,4204</t>
+          <t>21,0;31,12113;41,6294</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9186;31,1851;41,1004</t>
+          <t>21,9186;31,1851;41,1001</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9186;31,1851;41,1004</t>
+          <t>21,27559;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4593;31,925;41,502</t>
+          <t>21,0;31,1386;41,751</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79683</v>
+        <v>79683.54148300001</v>
       </c>
       <c r="O9" t="n">
-        <v>16182</v>
+        <v>16182.4372605</v>
       </c>
       <c r="P9" t="n">
-        <v>8409</v>
+        <v>8385.254890189999</v>
       </c>
       <c r="Q9" t="n">
-        <v>79683</v>
+        <v>239050.624449</v>
       </c>
       <c r="R9" t="n">
-        <v>16182</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8409</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39841</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8091</v>
+        <v>12113.71017786</v>
       </c>
       <c r="V9" t="n">
-        <v>4204</v>
+        <v>6294.94779722</v>
       </c>
       <c r="W9" t="n">
-        <v>9186</v>
+        <v>9186.523853500001</v>
       </c>
       <c r="X9" t="n">
-        <v>1851</v>
+        <v>1851.8297385</v>
       </c>
       <c r="Y9" t="n">
-        <v>1004</v>
+        <v>1001.45111307</v>
       </c>
       <c r="Z9" t="n">
-        <v>9186</v>
+        <v>27559.5715605</v>
       </c>
       <c r="AA9" t="n">
-        <v>1851</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4593</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>925</v>
+        <v>1386.22683282</v>
       </c>
       <c r="AE9" t="n">
-        <v>502</v>
+        <v>751.8057066600001</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87832;31,17156;41,10008</t>
+          <t>21,87832;31,17156;41,9979</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87832;31,17156;41,10008</t>
+          <t>21,263496;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43916;31,8578;41,5004</t>
+          <t>21,0;31,12842;41,7492</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10064;31,1956;41,1181</t>
+          <t>21,10064;31,1956;41,1177</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10064;31,1956;41,1181</t>
+          <t>21,30193;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5032;31,978;41,590</t>
+          <t>21,0;31,1464;41,884</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87832</v>
+        <v>87832.18388</v>
       </c>
       <c r="O10" t="n">
-        <v>17156</v>
+        <v>17156.118238</v>
       </c>
       <c r="P10" t="n">
-        <v>10008</v>
+        <v>9979.87107288</v>
       </c>
       <c r="Q10" t="n">
-        <v>87832</v>
+        <v>263496.55164</v>
       </c>
       <c r="R10" t="n">
-        <v>17156</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10008</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43916</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8578</v>
+        <v>12842.57993816</v>
       </c>
       <c r="V10" t="n">
-        <v>5004</v>
+        <v>7492.05220944</v>
       </c>
       <c r="W10" t="n">
-        <v>10064</v>
+        <v>10064.41226</v>
       </c>
       <c r="X10" t="n">
-        <v>1956</v>
+        <v>1956.486406</v>
       </c>
       <c r="Y10" t="n">
-        <v>1181</v>
+        <v>1177.80427864</v>
       </c>
       <c r="Z10" t="n">
-        <v>10064</v>
+        <v>30193.23678</v>
       </c>
       <c r="AA10" t="n">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5032</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>978</v>
+        <v>1464.56982392</v>
       </c>
       <c r="AE10" t="n">
-        <v>590</v>
+        <v>884.1969083199999</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,97774;31,18312;41,11971</t>
+          <t>21,97774;31,18313;41,11937</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,97774;31,18312;41,11971</t>
+          <t>21,293323;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48887;31,9156;41,5985</t>
+          <t>21,0;31,13708;41,8961</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11134;31,2080;41,1398</t>
+          <t>21,11134;31,2080;41,1394</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11134;31,2080;41,1398</t>
+          <t>21,33402;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5567;31,1040;41,699</t>
+          <t>21,0;31,1557;41,1046</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>97774</v>
+        <v>97774.386444</v>
       </c>
       <c r="O11" t="n">
-        <v>18312</v>
+        <v>18313.005354</v>
       </c>
       <c r="P11" t="n">
-        <v>11971</v>
+        <v>11937.37364798</v>
       </c>
       <c r="Q11" t="n">
-        <v>97774</v>
+        <v>293323.159332</v>
       </c>
       <c r="R11" t="n">
-        <v>18312</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11971</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48887</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9156</v>
+        <v>13708.59257928</v>
       </c>
       <c r="V11" t="n">
-        <v>5985</v>
+        <v>8961.58136324</v>
       </c>
       <c r="W11" t="n">
-        <v>11134</v>
+        <v>11134.088238</v>
       </c>
       <c r="X11" t="n">
-        <v>2080</v>
+        <v>2080.640898</v>
       </c>
       <c r="Y11" t="n">
-        <v>1398</v>
+        <v>1394.07772894</v>
       </c>
       <c r="Z11" t="n">
-        <v>11134</v>
+        <v>33402.264714</v>
       </c>
       <c r="AA11" t="n">
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1040</v>
+        <v>1557.50832936</v>
       </c>
       <c r="AE11" t="n">
-        <v>699</v>
+        <v>1046.55691972</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,116091;31,20747;41,15465</t>
+          <t>21,116091;31,20747;41,15421</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,116091;31,20747;41,15465</t>
+          <t>21,348273;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,58045;31,10373;41,7732</t>
+          <t>21,0;31,15531;41,11576</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13102;31,2341;41,1783</t>
+          <t>21,13102;31,2341;41,1778</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13102;31,2341;41,1783</t>
+          <t>21,39306;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6551;31,1170;41,891</t>
+          <t>21,0;31,1753;41,1335</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>116091</v>
+        <v>116091.199063</v>
       </c>
       <c r="O12" t="n">
-        <v>20747</v>
+        <v>20747.875911</v>
       </c>
       <c r="P12" t="n">
-        <v>15465</v>
+        <v>15421.06437712</v>
       </c>
       <c r="Q12" t="n">
-        <v>116091</v>
+        <v>348273.597189</v>
       </c>
       <c r="R12" t="n">
-        <v>20747</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15465</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>58045</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10373</v>
+        <v>15531.26711052</v>
       </c>
       <c r="V12" t="n">
-        <v>7732</v>
+        <v>11576.84489056</v>
       </c>
       <c r="W12" t="n">
-        <v>13102</v>
+        <v>13102.1672635</v>
       </c>
       <c r="X12" t="n">
-        <v>2341</v>
+        <v>2341.868907</v>
       </c>
       <c r="Y12" t="n">
-        <v>1783</v>
+        <v>1778.52237136</v>
       </c>
       <c r="Z12" t="n">
-        <v>13102</v>
+        <v>39306.5017905</v>
       </c>
       <c r="AA12" t="n">
-        <v>2341</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1783</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6551</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1170</v>
+        <v>1753.05615324</v>
       </c>
       <c r="AE12" t="n">
-        <v>891</v>
+        <v>1335.16579168</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,118928;31,21236;41,15960</t>
+          <t>21,118928;31,21236;41,15914</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,118928;31,21236;41,15960</t>
+          <t>21,356784;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,59464;31,10618;41,7980</t>
+          <t>21,0;31,15897;41,11947</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13416;31,2395;41,1839</t>
+          <t>21,13416;31,2395;41,1834</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13416;31,2395;41,1839</t>
+          <t>21,40249;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6708;31,1197;41,919</t>
+          <t>21,0;31,1793;41,1376</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>118928</v>
+        <v>118928.103364</v>
       </c>
       <c r="O13" t="n">
-        <v>21236</v>
+        <v>21236.8524375</v>
       </c>
       <c r="P13" t="n">
-        <v>15960</v>
+        <v>15914.80883954</v>
       </c>
       <c r="Q13" t="n">
-        <v>118928</v>
+        <v>356784.3100919999</v>
       </c>
       <c r="R13" t="n">
-        <v>21236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15960</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59464</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10618</v>
+        <v>15897.3009675</v>
       </c>
       <c r="V13" t="n">
-        <v>7980</v>
+        <v>11947.50692252</v>
       </c>
       <c r="W13" t="n">
-        <v>13416</v>
+        <v>13416.565078</v>
       </c>
       <c r="X13" t="n">
-        <v>2395</v>
+        <v>2395.9726875</v>
       </c>
       <c r="Y13" t="n">
-        <v>1839</v>
+        <v>1834.24257362</v>
       </c>
       <c r="Z13" t="n">
-        <v>13416</v>
+        <v>40249.695234</v>
       </c>
       <c r="AA13" t="n">
-        <v>2395</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1839</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6708</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1197</v>
+        <v>1793.5566975</v>
       </c>
       <c r="AE13" t="n">
-        <v>919</v>
+        <v>1376.99585756</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,121764;31,21724;41,16455</t>
+          <t>21,121764;31,21725;41,16408</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,121764;31,21724;41,16455</t>
+          <t>21,365294;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60882;31,10862;41,8227</t>
+          <t>21,0;31,16262;41,12318</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13730;31,2449;41,1895</t>
+          <t>21,13730;31,2449;41,1889</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13730;31,2449;41,1895</t>
+          <t>21,41192;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6865;31,1224;41,947</t>
+          <t>21,0;31,1833;41,1418</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>121764</v>
+        <v>121764.972665</v>
       </c>
       <c r="O14" t="n">
-        <v>21724</v>
+        <v>21725.0218885</v>
       </c>
       <c r="P14" t="n">
-        <v>16455</v>
+        <v>16408.51840196</v>
       </c>
       <c r="Q14" t="n">
-        <v>121764</v>
+        <v>365294.917995</v>
       </c>
       <c r="R14" t="n">
-        <v>21724</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16455</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60882</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10862</v>
+        <v>16262.73067082</v>
       </c>
       <c r="V14" t="n">
-        <v>8227</v>
+        <v>12318.14275448</v>
       </c>
       <c r="W14" t="n">
-        <v>13730</v>
+        <v>13730.9278925</v>
       </c>
       <c r="X14" t="n">
-        <v>2449</v>
+        <v>2449.9905745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1895</v>
+        <v>1889.92787588</v>
       </c>
       <c r="Z14" t="n">
-        <v>13730</v>
+        <v>41192.7836775</v>
       </c>
       <c r="AA14" t="n">
-        <v>2449</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1895</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6865</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1224</v>
+        <v>1833.99294434</v>
       </c>
       <c r="AE14" t="n">
-        <v>947</v>
+        <v>1418.79972344</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,124601;31,22213;41,16950</t>
+          <t>21,124601;31,22213;41,16902</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,124601;31,22213;41,16950</t>
+          <t>21,373805;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,62300;31,11106;41,8475</t>
+          <t>21,0;31,16628;41,12689</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14045;31,2504;41,1951</t>
+          <t>21,14045;31,2504;41,1945</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14045;31,2504;41,1951</t>
+          <t>21,42135;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7022;31,1252;41,975</t>
+          <t>21,0;31,1874;41,1460</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>124601</v>
+        <v>124601.876966</v>
       </c>
       <c r="O15" t="n">
-        <v>22213</v>
+        <v>22213.998415</v>
       </c>
       <c r="P15" t="n">
-        <v>16950</v>
+        <v>16902.52819861</v>
       </c>
       <c r="Q15" t="n">
-        <v>124601</v>
+        <v>373805.630898</v>
       </c>
       <c r="R15" t="n">
-        <v>22213</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16950</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62300</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11106</v>
+        <v>16628.7645278</v>
       </c>
       <c r="V15" t="n">
-        <v>8475</v>
+        <v>12689.00397718</v>
       </c>
       <c r="W15" t="n">
-        <v>14045</v>
+        <v>14045.325707</v>
       </c>
       <c r="X15" t="n">
-        <v>2504</v>
+        <v>2504.094355</v>
       </c>
       <c r="Y15" t="n">
-        <v>1951</v>
+        <v>1945.67715333</v>
       </c>
       <c r="Z15" t="n">
-        <v>14045</v>
+        <v>42135.977121</v>
       </c>
       <c r="AA15" t="n">
-        <v>2504</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1951</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7022</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1252</v>
+        <v>1874.4934886</v>
       </c>
       <c r="AE15" t="n">
-        <v>975</v>
+        <v>1460.65161654</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,127438;31,22702;41,17446</t>
+          <t>21,127438;31,22703;41,17396</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,127438;31,22702;41,17446</t>
+          <t>21,382316;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63719;31,11351;41,8723</t>
+          <t>21,0;31,16994;41,13059</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14359;31,2558;41,2007</t>
+          <t>21,14359;31,2558;41,2001</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14359;31,2558;41,2007</t>
+          <t>21,43079;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7179;31,1279;41,1003</t>
+          <t>21,0;31,1915;41,1502</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>127438</v>
+        <v>127438.746267</v>
       </c>
       <c r="O16" t="n">
-        <v>22702</v>
+        <v>22703.0099415</v>
       </c>
       <c r="P16" t="n">
-        <v>17446</v>
+        <v>17396.23776103</v>
       </c>
       <c r="Q16" t="n">
-        <v>127438</v>
+        <v>382316.238801</v>
       </c>
       <c r="R16" t="n">
-        <v>22702</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>17446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63719</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11351</v>
+        <v>16994.82458478</v>
       </c>
       <c r="V16" t="n">
-        <v>8723</v>
+        <v>13059.63980914</v>
       </c>
       <c r="W16" t="n">
-        <v>14359</v>
+        <v>14359.6885215</v>
       </c>
       <c r="X16" t="n">
-        <v>2558</v>
+        <v>2558.2331355</v>
       </c>
       <c r="Y16" t="n">
-        <v>2007</v>
+        <v>2001.36245559</v>
       </c>
       <c r="Z16" t="n">
-        <v>14359</v>
+        <v>43079.0655645</v>
       </c>
       <c r="AA16" t="n">
-        <v>2558</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2007</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7179</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1279</v>
+        <v>1915.02023286</v>
       </c>
       <c r="AE16" t="n">
-        <v>1003</v>
+        <v>1502.45548242</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,130275;31,23191;41,17941</t>
+          <t>21,130275;31,23191;41,17889</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,130275;31,23191;41,17941</t>
+          <t>21,390826;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,65137;31,11595;41,8970</t>
+          <t>21,0;31,17360;41,13430</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14674;31,2612;41,2062</t>
+          <t>21,14674;31,2612;41,2057</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14674;31,2612;41,2062</t>
+          <t>21,44022;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7337;31,1306;41,1031</t>
+          <t>21,0;31,1955;41,1544</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>130275</v>
+        <v>130275.650568</v>
       </c>
       <c r="O17" t="n">
-        <v>23191</v>
+        <v>23191.986468</v>
       </c>
       <c r="P17" t="n">
-        <v>17941</v>
+        <v>17889.98222345</v>
       </c>
       <c r="Q17" t="n">
-        <v>130275</v>
+        <v>390826.951704</v>
       </c>
       <c r="R17" t="n">
-        <v>23191</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17941</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65137</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11595</v>
+        <v>17360.85844176</v>
       </c>
       <c r="V17" t="n">
-        <v>8970</v>
+        <v>13430.3018411</v>
       </c>
       <c r="W17" t="n">
-        <v>14674</v>
+        <v>14674.086336</v>
       </c>
       <c r="X17" t="n">
-        <v>2612</v>
+        <v>2612.336916</v>
       </c>
       <c r="Y17" t="n">
-        <v>2062</v>
+        <v>2057.08265785</v>
       </c>
       <c r="Z17" t="n">
-        <v>14674</v>
+        <v>44022.259008</v>
       </c>
       <c r="AA17" t="n">
-        <v>2612</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7337</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1306</v>
+        <v>1955.52077712</v>
       </c>
       <c r="AE17" t="n">
-        <v>1031</v>
+        <v>1544.2855483</v>
       </c>
     </row>
   </sheetData>
@@ -5107,25 +5107,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7295</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22665</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5146,40 +5146,40 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3724</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>11570</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5200,48 +5200,48 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7295;31,1298;41,1004;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,22665;31,0;41,0;22,120;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,957;41,740;22,0;32,30;42,29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3724;31,721;41,405;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11570;31,0;41,0;22,105;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,532;41,298;22,0;32,25;42,25</t>
         </is>
       </c>
     </row>
@@ -5250,25 +5250,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14590</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2597</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>45331</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5289,40 +5289,40 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4296</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>13347</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5343,48 +5343,48 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,14590;31,2597;41,2009;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,45331;31,0;41,0;22,240;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1915;41,1481;22,0;32,60;42,59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4296;31,801;41,501;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,13347;31,0;41,0;22,210;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,591;41,370;22,0;32,52;42,52</t>
         </is>
       </c>
     </row>
@@ -5393,25 +5393,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21886</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3896</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3014</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>67996</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -5432,40 +5432,40 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2872</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2222</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5269</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>16370</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5486,48 +5486,48 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,21886;31,3896;41,3014;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,67996;31,0;41,0;22,360;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2872;41,2222;22,0;32,90;42,89</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5269;31,941;41,670;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,16370;31,0;41,0;22,315;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,694;41,494;22,0;32,78;42,77</t>
         </is>
       </c>
     </row>
@@ -5536,25 +5536,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>29181</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5194</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4018</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>90662</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -5575,40 +5575,40 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3830</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2962</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>17555</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5629,48 +5629,48 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,29181;31,5194;41,4018;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,90662;31,0;41,0;22,480;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3830;41,2962;22,0;32,120;42,119</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5650;31,1009;41,729;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,17555;31,0;41,0;22,420;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,744;41,538;22,0;32,105;42,104</t>
         </is>
       </c>
     </row>
@@ -5679,25 +5679,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>36477</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6493</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5023</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>113327</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -5718,40 +5718,40 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4788</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3703</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6056</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>18817</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5772,48 +5772,48 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,36477;31,6493;41,5023;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,113327;31,0;41,0;22,600;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,4788;41,3703;22,0;32,150;42,149</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6056;31,1080;41,793;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,18817;31,0;41,0;22,525;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,796;41,585;22,0;32,130;42,130</t>
         </is>
       </c>
     </row>
@@ -5822,25 +5822,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>43772</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7792</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6028</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>135993</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -5861,40 +5861,40 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5745</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4444</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6489</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>20161</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5915,48 +5915,48 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,43772;31,7792;41,6028;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,135993;31,0;41,0;22,720;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,5745;41,4444;22,0;32,180;42,179</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6489;31,1157;41,862;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,20161;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,853;41,635;22,0;32,157;42,157</t>
         </is>
       </c>
     </row>
@@ -5965,25 +5965,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>51067</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9090</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7032</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>158658</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -6004,40 +6004,40 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6703</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6949</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>21591</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -6058,48 +6058,48 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,51067;31,9090;41,7032;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,158658;31,0;41,0;22,840;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,6703;41,5184;22,0;32,210;42,209</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6949;31,1238;41,935;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,21591;31,0;41,0;22,735;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,912;41,689;22,0;32,183;42,182</t>
         </is>
       </c>
     </row>
@@ -6108,25 +6108,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>58363</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10389</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8037</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>181324</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -6147,40 +6147,40 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>7660</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>5925</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7722</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1374</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>23991</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -6201,48 +6201,48 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,58363;31,10389;41,8037;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,181324;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,7660;41,5925;22,0;32,235;42,235</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7722;31,1374;41,1060;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,23991;31,0;41,0;22,840;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1013;41,781;22,0;32,210;42,209</t>
         </is>
       </c>
     </row>
@@ -6251,25 +6251,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>65658</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11688</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9042</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>203989</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -6290,40 +6290,40 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8618</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6666</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8361</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>25976</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6344,48 +6344,48 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,65658;31,11688;41,9042;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,203989;31,0;41,0;22,1005;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,8618;41,6666;22,0;32,250;42,250</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8361;31,1488;41,1162;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,25976;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1097;41,856;22,0;32,235;42,235</t>
         </is>
       </c>
     </row>
@@ -6394,25 +6394,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>72954</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10047</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6433,40 +6433,40 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9576</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>7407</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9014</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>28005</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6487,48 +6487,48 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1183</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,72954;31,12987;41,10047;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,226655;31,0;41,0;22,1050;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,9576;41,7407;22,0;32,262;42,262</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,9014;31,1604;41,1267;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,28005;31,0;41,0;22,1050;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1183;41,934;22,0;32,262;42,262</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,6 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -6886,8 +6885,6 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
         <v>11242610.827795</v>
       </c>
@@ -6964,7 +6961,6 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -7021,8 +7017,6 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
         <v>1274005.802915</v>
       </c>
@@ -7099,7 +7093,6 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7156,8 +7149,6 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19326.684855</v>
       </c>
@@ -7234,7 +7225,6 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7291,8 +7281,6 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>48685.04775</v>
       </c>
@@ -7369,7 +7357,6 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7426,8 +7413,6 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>115940.078</v>
       </c>
@@ -7504,7 +7489,6 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7561,8 +7545,6 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
         <v>115940.078</v>
       </c>
@@ -7639,7 +7621,6 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -7696,8 +7677,6 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>115940.078</v>
       </c>
@@ -7774,7 +7753,6 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -7831,8 +7809,6 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>523321.8442</v>
       </c>
@@ -7909,7 +7885,6 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -7966,8 +7941,6 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
         <v>523321.8442</v>
       </c>
@@ -8044,7 +8017,6 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8101,8 +8073,6 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
         <v>523321.8442</v>
       </c>
@@ -8179,7 +8149,6 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8236,8 +8205,6 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
         <v>523321.8442</v>
       </c>
@@ -8314,7 +8281,6 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8371,8 +8337,6 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
         <v>523321.8442</v>
       </c>
@@ -8449,7 +8413,6 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8506,8 +8469,6 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>523321.8442</v>
       </c>
@@ -8584,7 +8545,6 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8641,8 +8601,6 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
         <v>805190.23802</v>
       </c>
@@ -8719,7 +8677,6 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -8776,8 +8733,6 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
         <v>805190.23802</v>
       </c>
@@ -8854,7 +8809,6 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -8911,8 +8865,6 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
         <v>1843430.72114</v>
       </c>
@@ -8989,7 +8941,6 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -9046,8 +8997,6 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
         <v>11242610.827795</v>
       </c>
@@ -9124,7 +9073,6 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9181,8 +9129,6 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
         <v>18244415.15738</v>
       </c>
@@ -9259,7 +9205,6 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9316,8 +9261,6 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
         <v>552509.71452</v>
       </c>
@@ -9394,7 +9337,6 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9451,8 +9393,6 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>654564.48218</v>
       </c>
@@ -9529,7 +9469,6 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9586,8 +9525,6 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
         <v>828220.57378</v>
       </c>
@@ -9664,7 +9601,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -9721,8 +9657,6 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
         <v>904364.8682599999</v>
       </c>
@@ -9799,7 +9733,6 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -9856,8 +9789,6 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>1024512.052155</v>
       </c>
@@ -9934,7 +9865,6 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -9991,8 +9921,6 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
         <v>1274005.802915</v>
       </c>

--- a/opm_hero_property/heroes/96.xlsx
+++ b/opm_hero_property/heroes/96.xlsx
@@ -6829,6 +6829,7 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -6838,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5287598.478321601</v>
+        <v>5490828.128889601</v>
       </c>
       <c r="U2" t="n">
-        <v>896114.0797152</v>
+        <v>932293.0661832</v>
       </c>
       <c r="V2" t="n">
-        <v>744469.831433</v>
+        <v>772406.81365645</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6885,6 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,617481;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,26936;41,20837</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11242610.827795</v>
       </c>
@@ -6904,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>613502.3049820375</v>
       </c>
       <c r="AS2" t="n">
-        <v>15767491.65909623</v>
+        <v>16380993.96407827</v>
       </c>
     </row>
     <row r="3">
@@ -6961,6 +6972,7 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -6970,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>661070.9448832</v>
+        <v>684759.0312192</v>
       </c>
       <c r="U3" t="n">
-        <v>130823.3341024</v>
+        <v>135039.6710184</v>
       </c>
       <c r="V3" t="n">
-        <v>99972.445049</v>
+        <v>103296.52770685</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7017,6 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,72027;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,3138;41,2478</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1274005.802915</v>
       </c>
@@ -7036,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>71894.2863390375</v>
       </c>
       <c r="AS3" t="n">
-        <v>2154598.00922151</v>
+        <v>2226492.295560548</v>
       </c>
     </row>
     <row r="4">
@@ -7093,6 +7115,7 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7149,6 +7172,8 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19326.684855</v>
       </c>
@@ -7225,6 +7250,7 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7281,6 +7307,8 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>48685.04775</v>
       </c>
@@ -7357,6 +7385,7 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7413,6 +7442,8 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>115940.078</v>
       </c>
@@ -7489,6 +7520,7 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7498,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55767.352</v>
+        <v>63220.669408</v>
       </c>
       <c r="U7" t="n">
-        <v>10470.9</v>
+        <v>11799.5356</v>
       </c>
       <c r="V7" t="n">
-        <v>5423.968</v>
+        <v>6443.3572752</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7545,6 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,23139;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,979;41,751</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>115940.078</v>
       </c>
@@ -7564,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>22482.3913804</v>
       </c>
       <c r="AS7" t="n">
-        <v>164321.378</v>
+        <v>186803.7693804</v>
       </c>
     </row>
     <row r="8">
@@ -7621,6 +7663,7 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -7630,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56044.407464</v>
+        <v>70951.04227999999</v>
       </c>
       <c r="U8" t="n">
-        <v>10501.5356</v>
+        <v>13159.8068</v>
       </c>
       <c r="V8" t="n">
-        <v>5447.643808</v>
+        <v>7487.8169552</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7677,6 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,46280;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,1960;41,1504</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>115940.078</v>
       </c>
@@ -7696,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>44979.70169240001</v>
       </c>
       <c r="AS8" t="n">
-        <v>164945.955</v>
+        <v>209925.6566924</v>
       </c>
     </row>
     <row r="9">
@@ -7753,6 +7806,7 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -7809,6 +7863,8 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>523321.8442</v>
       </c>
@@ -7885,6 +7941,7 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -7894,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>238036.2164026</v>
+        <v>246052.8418898</v>
       </c>
       <c r="U10" t="n">
-        <v>42353.108448</v>
+        <v>43780.104896</v>
       </c>
       <c r="V10" t="n">
-        <v>26332.8311648</v>
+        <v>27417.93190192</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7941,6 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,24829;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1053;41,800</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>523321.8442</v>
       </c>
@@ -7960,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24102.23021684</v>
       </c>
       <c r="AS10" t="n">
-        <v>694505.4438914</v>
+        <v>718607.6741082401</v>
       </c>
     </row>
     <row r="11">
@@ -8017,6 +8084,7 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8026,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>250664.6624286</v>
+        <v>290749.7898646</v>
       </c>
       <c r="U11" t="n">
-        <v>43643.072928</v>
+        <v>50781.055168</v>
       </c>
       <c r="V11" t="n">
-        <v>27580.5348128</v>
+        <v>33017.35652272</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -8073,6 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,124151;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,5271;41,4012</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>523321.8442</v>
       </c>
@@ -8092,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>120598.92972404</v>
       </c>
       <c r="AS11" t="n">
-        <v>723421.4408054</v>
+        <v>844020.37052944</v>
       </c>
     </row>
     <row r="12">
@@ -8149,6 +8227,7 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8158,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263293.1084546</v>
+        <v>303378.2358906</v>
       </c>
       <c r="U12" t="n">
-        <v>44933.037408</v>
+        <v>52071.019648</v>
       </c>
       <c r="V12" t="n">
-        <v>28828.2384608</v>
+        <v>34265.06017072</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -8205,6 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,124151;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,5271;41,4012</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>523321.8442</v>
       </c>
@@ -8224,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>120598.92972404</v>
       </c>
       <c r="AS12" t="n">
-        <v>752337.4377194</v>
+        <v>872936.36744344</v>
       </c>
     </row>
     <row r="13">
@@ -8281,6 +8370,7 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8290,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>275921.5544806</v>
+        <v>355189.7774936</v>
       </c>
       <c r="U13" t="n">
-        <v>46223.001888</v>
+        <v>60338.720808</v>
       </c>
       <c r="V13" t="n">
-        <v>30075.9421088</v>
+        <v>40848.68973072</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8337,6 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,245597;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,10420;41,7951</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>523321.8442</v>
       </c>
@@ -8356,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>238609.98238704</v>
       </c>
       <c r="AS13" t="n">
-        <v>781253.4346334001</v>
+        <v>1019863.41702044</v>
       </c>
     </row>
     <row r="14">
@@ -8413,6 +8513,7 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8422,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>275921.5544806</v>
+        <v>316006.6819166</v>
       </c>
       <c r="U14" t="n">
-        <v>46223.001888</v>
+        <v>53360.984128</v>
       </c>
       <c r="V14" t="n">
-        <v>30075.9421088</v>
+        <v>35512.76381872</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8469,6 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,124151;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,5271;41,4012</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>523321.8442</v>
       </c>
@@ -8488,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>120598.92972404</v>
       </c>
       <c r="AS14" t="n">
-        <v>781071.4346334001</v>
+        <v>901670.36435744</v>
       </c>
     </row>
     <row r="15">
@@ -8545,6 +8656,7 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8554,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>411732.062871</v>
+        <v>461997.710783</v>
       </c>
       <c r="U15" t="n">
-        <v>69493.25632720001</v>
+        <v>78443.94507440001</v>
       </c>
       <c r="V15" t="n">
-        <v>51695.10302559999</v>
+        <v>58557.20704103999</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8601,6 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,155473;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,6614;41,5068</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>805190.23802</v>
       </c>
@@ -8620,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>151482.49835646</v>
       </c>
       <c r="AS15" t="n">
-        <v>1202120.87392588</v>
+        <v>1353603.37228234</v>
       </c>
     </row>
     <row r="16">
@@ -8677,6 +8799,7 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -8686,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>411732.062871</v>
+        <v>470374.985435</v>
       </c>
       <c r="U16" t="n">
-        <v>69493.25632720001</v>
+        <v>79935.05986560001</v>
       </c>
       <c r="V16" t="n">
-        <v>51695.10302559999</v>
+        <v>59700.80603943999</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8733,6 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,181385;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,7716;41,5913</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>805190.23802</v>
       </c>
@@ -8752,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>176724.15930854</v>
       </c>
       <c r="AS16" t="n">
-        <v>1202302.87392588</v>
+        <v>1379027.03323442</v>
       </c>
     </row>
     <row r="17">
@@ -8809,6 +8942,7 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -8818,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1010775.1675977</v>
+        <v>1088043.52978285</v>
       </c>
       <c r="U17" t="n">
-        <v>175405.3635184</v>
+        <v>189162.4075138</v>
       </c>
       <c r="V17" t="n">
-        <v>152981.3898</v>
+        <v>163774.34582</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8865,6 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,238040;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,10172;41,7987</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1843430.72114</v>
       </c>
@@ -8884,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>234251.46286841</v>
       </c>
       <c r="AS17" t="n">
-        <v>3115263.66722466</v>
+        <v>3349515.13009307</v>
       </c>
     </row>
     <row r="18">
@@ -8941,6 +9085,7 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -8950,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5287598.478321601</v>
+        <v>5490828.128889601</v>
       </c>
       <c r="U18" t="n">
-        <v>896114.0797152</v>
+        <v>932293.0661832</v>
       </c>
       <c r="V18" t="n">
-        <v>744469.831433</v>
+        <v>772406.81365645</v>
       </c>
       <c r="W18" t="n">
         <v>3380</v>
@@ -8997,6 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,617481;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,26936;41,20837</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11242610.827795</v>
       </c>
@@ -9016,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>613502.3049820375</v>
       </c>
       <c r="AS18" t="n">
-        <v>15767491.65909623</v>
+        <v>16380993.96407827</v>
       </c>
     </row>
     <row r="19">
@@ -9073,6 +9228,7 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9082,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8726576.843052801</v>
+        <v>8929806.4936208</v>
       </c>
       <c r="U19" t="n">
-        <v>1480648.4991008</v>
+        <v>1516827.4855688</v>
       </c>
       <c r="V19" t="n">
-        <v>1225594.121756</v>
+        <v>1253531.10397945</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -9129,6 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,617481;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,26936;41,20837</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18244415.15738</v>
       </c>
@@ -9148,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>613502.3049820375</v>
       </c>
       <c r="AS19" t="n">
-        <v>26008588.18694532</v>
+        <v>26622090.49192736</v>
       </c>
     </row>
     <row r="20">
@@ -9205,6 +9371,7 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9214,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213399.491196</v>
+        <v>217775.222794</v>
       </c>
       <c r="U20" t="n">
-        <v>41169.7563472</v>
+        <v>42017.079701</v>
       </c>
       <c r="V20" t="n">
-        <v>23139.6255488</v>
+        <v>23613.47597312</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9261,6 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,13525;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,622;41,348</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>552509.71452</v>
       </c>
@@ -9280,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12946.90267906</v>
       </c>
       <c r="AS20" t="n">
-        <v>635640.6568972801</v>
+        <v>648587.55957634</v>
       </c>
     </row>
     <row r="21">
@@ -9337,6 +9514,7 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9346,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>280333.9597736</v>
+        <v>286173.3327712</v>
       </c>
       <c r="U21" t="n">
-        <v>51208.4349728</v>
+        <v>52297.5173912</v>
       </c>
       <c r="V21" t="n">
-        <v>32421.1920568</v>
+        <v>33101.34086092</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9393,6 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,17977;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,805;41,505</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>654564.48218</v>
       </c>
@@ -9412,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17264.89730825</v>
       </c>
       <c r="AS21" t="n">
-        <v>827660.5154125199</v>
+        <v>844925.4127207699</v>
       </c>
     </row>
     <row r="22">
@@ -9469,6 +9657,7 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9478,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>393798.1965694</v>
+        <v>404718.3604228999</v>
       </c>
       <c r="U22" t="n">
-        <v>68363.57817679999</v>
+        <v>70313.03400529998</v>
       </c>
       <c r="V22" t="n">
-        <v>48463.4153376</v>
+        <v>49881.69369184</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9525,6 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,33409;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,1441;41,1052</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>828220.57378</v>
       </c>
@@ -9544,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>32526.50960703</v>
       </c>
       <c r="AS22" t="n">
-        <v>1157415.52418052</v>
+        <v>1189942.03378755</v>
       </c>
     </row>
     <row r="23">
@@ -9601,6 +9800,7 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -9610,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>455552.6742795</v>
+        <v>469904.13033525</v>
       </c>
       <c r="U23" t="n">
-        <v>79736.9303256</v>
+        <v>82295.7926859</v>
       </c>
       <c r="V23" t="n">
-        <v>58469.4154792</v>
+        <v>60377.87293088</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9657,6 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,43798;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,1898;41,1415</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>904364.8682599999</v>
       </c>
@@ -9676,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>42981.23668898</v>
       </c>
       <c r="AS23" t="n">
-        <v>1355757.13253154</v>
+        <v>1398738.36922052</v>
       </c>
     </row>
     <row r="24">
@@ -9733,6 +9943,7 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -9742,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>522910.73363</v>
+        <v>540159.1005500001</v>
       </c>
       <c r="U24" t="n">
-        <v>96533.9275208</v>
+        <v>99605.13923840001</v>
       </c>
       <c r="V24" t="n">
-        <v>72161.1372114</v>
+        <v>74508.02205811</v>
       </c>
       <c r="W24" t="n">
         <v>3380</v>
@@ -9789,6 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,52570;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,2285;41,1745</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1024512.052155</v>
       </c>
@@ -9808,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>51934.3156400225</v>
       </c>
       <c r="AS24" t="n">
-        <v>1618469.87248907</v>
+        <v>1670404.188129093</v>
       </c>
     </row>
     <row r="25">
@@ -9865,6 +10086,7 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -9874,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>661070.9448832</v>
+        <v>684759.0312192</v>
       </c>
       <c r="U25" t="n">
-        <v>130823.3341024</v>
+        <v>135039.6710184</v>
       </c>
       <c r="V25" t="n">
-        <v>99972.445049</v>
+        <v>103296.52770685</v>
       </c>
       <c r="W25" t="n">
         <v>3380</v>
@@ -9921,6 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,72027;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,3138;41,2478</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1274005.802915</v>
       </c>
@@ -9940,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>71894.2863390375</v>
       </c>
       <c r="AS25" t="n">
-        <v>2154598.00922151</v>
+        <v>2226492.295560548</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/96.xlsx
+++ b/opm_hero_property/heroes/96.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>96</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5490828.128889601</v>
+        <v>6384146.044473601</v>
       </c>
       <c r="U2" t="n">
-        <v>932293.0661832</v>
+        <v>1091323.3209672</v>
       </c>
       <c r="V2" t="n">
-        <v>772406.81365645</v>
+        <v>895432.36889645</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11242610.827795</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1923524.33130123</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2905388.4662236</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1798680.75</v>
+      </c>
+      <c r="AU2" t="n">
         <v>613502.3049820375</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16380993.96407827</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19079017.58030187</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>96</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>684759.0312192</v>
+        <v>785380.7999872001</v>
       </c>
       <c r="U3" t="n">
-        <v>135039.6710184</v>
+        <v>152952.7268264</v>
       </c>
       <c r="V3" t="n">
-        <v>103296.52770685</v>
+        <v>117441.90342685</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1274005.802915</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>218515.95630651</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>580863.0642332</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203703.3</v>
+      </c>
+      <c r="AU3" t="n">
         <v>71894.2863390375</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2226492.295560548</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2532050.059793747</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>96</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7534.584800000001</v>
+        <v>8004.584800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1633.9342</v>
+        <v>1716.9342</v>
       </c>
       <c r="V4" t="n">
-        <v>563.6181</v>
+        <v>627.6181</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19326.684855</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23783.534855</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1410.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25194.234855</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>96</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19976.0486</v>
+        <v>33805.0486</v>
       </c>
       <c r="U5" t="n">
-        <v>4068.866</v>
+        <v>6529.866</v>
       </c>
       <c r="V5" t="n">
-        <v>1685.665</v>
+        <v>3589.665</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48685.04775</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60513.84775</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41757.9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102271.74775</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>96</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55767.352</v>
+        <v>115054.352</v>
       </c>
       <c r="U6" t="n">
-        <v>10470.9</v>
+        <v>21024.9</v>
       </c>
       <c r="V6" t="n">
-        <v>5423.968</v>
+        <v>13587.968</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115940.078</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164139.378</v>
+      <c r="AT6" t="n">
+        <v>179052.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>343191.978</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>96</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>63220.669408</v>
+        <v>122507.669408</v>
       </c>
       <c r="U7" t="n">
-        <v>11799.5356</v>
+        <v>22353.5356</v>
       </c>
       <c r="V7" t="n">
-        <v>6443.3572752</v>
+        <v>14607.3572752</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115940.078</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>179052.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22482.3913804</v>
       </c>
-      <c r="AS7" t="n">
-        <v>186803.7693804</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>365856.3693804001</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>96</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>70951.04227999999</v>
+        <v>130238.04228</v>
       </c>
       <c r="U8" t="n">
-        <v>13159.8068</v>
+        <v>23713.8068</v>
       </c>
       <c r="V8" t="n">
-        <v>7487.8169552</v>
+        <v>15651.8169552</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115940.078</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>624.577</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>179052.6</v>
+      </c>
+      <c r="AU8" t="n">
         <v>44979.70169240001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>209925.6566924</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>388978.2566924</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>96</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>236773.3718</v>
+        <v>414284.435518</v>
       </c>
       <c r="U9" t="n">
-        <v>42224.112</v>
+        <v>72220.60312</v>
       </c>
       <c r="V9" t="n">
-        <v>26208.0608</v>
+        <v>49603.011408</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>691635.0941999999</v>
+        <v>44109.968442</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1210762.912642</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>96</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>246052.8418898</v>
+        <v>480785.0159087404</v>
       </c>
       <c r="U10" t="n">
-        <v>43780.104896</v>
+        <v>83154.12147257601</v>
       </c>
       <c r="V10" t="n">
-        <v>27417.93190192</v>
+        <v>57224.71439509856</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2870.3496914</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44109.968442</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24102.23021684</v>
       </c>
-      <c r="AS10" t="n">
-        <v>718607.6741082401</v>
+      <c r="AV10" t="n">
+        <v>253141.6692910915</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1396529.561841332</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>96</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>290749.7898646</v>
+        <v>590461.2289470867</v>
       </c>
       <c r="U11" t="n">
-        <v>50781.055168</v>
+        <v>99117.793954368</v>
       </c>
       <c r="V11" t="n">
-        <v>33017.35652272</v>
+        <v>70050.92865907296</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA11" t="n">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="AB11" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>31786.3466054</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44109.968442</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU11" t="n">
         <v>120598.92972404</v>
       </c>
-      <c r="AS11" t="n">
-        <v>844020.37052944</v>
+      <c r="AV11" t="n">
+        <v>421517.7580504555</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1690318.347021895</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>96</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>303378.2358906</v>
+        <v>685729.4309003805</v>
       </c>
       <c r="U12" t="n">
-        <v>52071.019648</v>
+        <v>109781.504494128</v>
       </c>
       <c r="V12" t="n">
-        <v>34265.06017072</v>
+        <v>82122.11523142624</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="AA12" t="n">
-        <v>2660</v>
+        <v>2680</v>
       </c>
       <c r="AB12" t="n">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>60702.3435194</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44109.968442</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU12" t="n">
         <v>120598.92972404</v>
       </c>
-      <c r="AS12" t="n">
-        <v>872936.36744344</v>
+      <c r="AV12" t="n">
+        <v>631191.3886051245</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1928907.974490565</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>96</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>355189.7774936</v>
+        <v>834701.0308770435</v>
       </c>
       <c r="U13" t="n">
-        <v>60338.720808</v>
+        <v>131071.091378488</v>
       </c>
       <c r="V13" t="n">
-        <v>40848.68973072</v>
+        <v>99835.72923294624</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA13" t="n">
-        <v>2910</v>
+        <v>2960</v>
       </c>
       <c r="AB13" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>89618.34043340001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44109.968442</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU13" t="n">
         <v>238609.98238704</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1019863.41702044</v>
+      <c r="AV13" t="n">
+        <v>882559.8690156116</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2327203.504478051</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>96</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>316006.6819166</v>
+        <v>926823.6854250609</v>
       </c>
       <c r="U14" t="n">
-        <v>53360.984128</v>
+        <v>138794.470653952</v>
       </c>
       <c r="V14" t="n">
-        <v>35512.76381872</v>
+        <v>104705.7555729613</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="AA14" t="n">
-        <v>2910</v>
+        <v>2960</v>
       </c>
       <c r="AB14" t="n">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>523321.8442</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>89618.34043340001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43927.968442</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>419555.25</v>
+      </c>
+      <c r="AU14" t="n">
         <v>120598.92972404</v>
       </c>
-      <c r="AS14" t="n">
-        <v>901670.36435744</v>
+      <c r="AV14" t="n">
+        <v>1173987.544682417</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2500438.127481857</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>96</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>461997.710783</v>
+        <v>1467987.125656849</v>
       </c>
       <c r="U15" t="n">
-        <v>78443.94507440001</v>
+        <v>231411.595362528</v>
       </c>
       <c r="V15" t="n">
-        <v>58557.20704103999</v>
+        <v>177612.6807204607</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2910</v>
+        <v>3010</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>805190.23802</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>137983.43590588</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127507.1047604</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>767640.55</v>
+      </c>
+      <c r="AU15" t="n">
         <v>151482.49835646</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1353603.37228234</v>
+      <c r="AV15" t="n">
+        <v>1963507.320758201</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4100838.547800941</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>96</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>470374.985435</v>
+        <v>1504461.316858005</v>
       </c>
       <c r="U16" t="n">
-        <v>79935.05986560001</v>
+        <v>237273.2263302576</v>
       </c>
       <c r="V16" t="n">
-        <v>59700.80603943999</v>
+        <v>182056.7152922949</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA16" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB16" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>805190.23802</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>137983.43590588</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127689.1047604</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>767640.55</v>
+      </c>
+      <c r="AU16" t="n">
         <v>176724.15930854</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1379027.03323442</v>
+      <c r="AV16" t="n">
+        <v>2041938.303472658</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4204693.191467478</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>96</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1088043.52978285</v>
+        <v>2702734.267308143</v>
       </c>
       <c r="U17" t="n">
-        <v>189162.4075138</v>
+        <v>428489.4295698016</v>
       </c>
       <c r="V17" t="n">
-        <v>163774.34582</v>
+        <v>358464.0623030401</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA17" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB17" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1843430.72114</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>316226.19608466</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>759306.2288456</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1226516.75</v>
+      </c>
+      <c r="AU17" t="n">
         <v>234251.46286841</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3349515.13009307</v>
+      <c r="AV17" t="n">
+        <v>3087692.080643584</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7737428.189582255</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>96</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5490828.128889601</v>
+        <v>9591491.00412306</v>
       </c>
       <c r="U18" t="n">
-        <v>932293.0661832</v>
+        <v>1488643.07284133</v>
       </c>
       <c r="V18" t="n">
-        <v>772406.81365645</v>
+        <v>1224255.132426231</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA18" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB18" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11242610.827795</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1923524.33130123</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2905388.4662236</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1798680.75</v>
+      </c>
+      <c r="AU18" t="n">
         <v>613502.3049820375</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16380993.96407827</v>
+      <c r="AV18" t="n">
+        <v>7841982.137877193</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26920999.71817906</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>96</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8929806.4936208</v>
+        <v>16408104.35216286</v>
       </c>
       <c r="U19" t="n">
-        <v>1516827.4855688</v>
+        <v>2653647.382771379</v>
       </c>
       <c r="V19" t="n">
-        <v>1253531.10397945</v>
+        <v>2178064.366801269</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="AA19" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB19" t="n">
-        <v>2820</v>
+        <v>3620</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18244415.15738</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3120865.02956532</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6203966.123607</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1798680.75</v>
+      </c>
+      <c r="AU19" t="n">
         <v>613502.3049820375</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26622090.49192736</v>
+      <c r="AV19" t="n">
+        <v>16105602.13685832</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47262911.90239269</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>96</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>217775.222794</v>
+        <v>224453.222794</v>
       </c>
       <c r="U20" t="n">
-        <v>42017.079701</v>
+        <v>43205.079701</v>
       </c>
       <c r="V20" t="n">
-        <v>23613.47597312</v>
+        <v>24551.47597312</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>552509.71452</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2998.24237728</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20268.7</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12946.90267906</v>
       </c>
-      <c r="AS20" t="n">
-        <v>648587.55957634</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>668856.2595763401</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>96</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>286173.3327712</v>
+        <v>299963.1513392</v>
       </c>
       <c r="U21" t="n">
-        <v>52297.5173912</v>
+        <v>54771.0637032</v>
       </c>
       <c r="V21" t="n">
-        <v>33101.34086092</v>
+        <v>34988.97680892</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>654564.48218</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>39537.33323252</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72044.99482180001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35173.8</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17264.89730825</v>
       </c>
-      <c r="AS21" t="n">
-        <v>844925.4127207699</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>886636.6075425701</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>96</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>404718.3604228999</v>
+        <v>532630.9594132663</v>
       </c>
       <c r="U22" t="n">
-        <v>70313.03400529998</v>
+        <v>89207.21804579128</v>
       </c>
       <c r="V22" t="n">
-        <v>49881.69369184</v>
+        <v>64892.62918953857</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA22" t="n">
-        <v>2660</v>
+        <v>2710</v>
       </c>
       <c r="AB22" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>828220.57378</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>96115.65040052</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103663.3557378</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47507.75</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32526.50960703</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1189942.03378755</v>
+      <c r="AV22" t="n">
+        <v>289413.642243723</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1535137.381769073</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>96</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>469904.13033525</v>
+        <v>688956.8085396164</v>
       </c>
       <c r="U23" t="n">
-        <v>82295.7926859</v>
+        <v>118303.5136354413</v>
       </c>
       <c r="V23" t="n">
-        <v>60377.87293088</v>
+        <v>86758.03068398785</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA23" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB23" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>904364.8682599999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>154998.41427154</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169793.7973652</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86929.39999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42981.23668898</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1398738.36922052</v>
+      <c r="AV23" t="n">
+        <v>516591.6624713716</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2020330.229057092</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>96</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>540159.1005500001</v>
+        <v>863984.6286339</v>
       </c>
       <c r="U24" t="n">
-        <v>99605.13923840001</v>
+        <v>153758.1939795248</v>
       </c>
       <c r="V24" t="n">
-        <v>74508.02205811</v>
+        <v>114853.9425946121</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA24" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB24" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1024512.052155</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>175659.37033407</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>301765.6820862</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138901.2</v>
+      </c>
+      <c r="AU24" t="n">
         <v>51934.3156400225</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1670404.188129093</v>
+      <c r="AV24" t="n">
+        <v>752021.9667963486</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2602274.837011641</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>96</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>684759.0312192</v>
+        <v>1472293.862380954</v>
       </c>
       <c r="U25" t="n">
-        <v>135039.6710184</v>
+        <v>263238.1978933704</v>
       </c>
       <c r="V25" t="n">
-        <v>103296.52770685</v>
+        <v>202126.6426449445</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA25" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AB25" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1274005.802915</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>218515.95630651</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>580863.0642332</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203703.3</v>
+      </c>
+      <c r="AU25" t="n">
         <v>71894.2863390375</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2226492.295560548</v>
+      <c r="AV25" t="n">
+        <v>1937220.063259893</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4469270.123053641</v>
       </c>
     </row>
   </sheetData>
